--- a/tabelka_hihi.xlsx
+++ b/tabelka_hihi.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f7c2dd55e68566da/Documents/GitHub/-WHERE-IS-THE-BEST-PLACE-TO-BECOME-A-PARENT-RANKING-OF-COUNTRIES-FAVORABLE-TO-PARENTHOOD/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="11_968C3FDB8F79A8D366075C52F37BD272FAC04E7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D439E09C-9555-468D-88CA-4262A1F4D34A}"/>
+  <xr:revisionPtr revIDLastSave="73" documentId="11_968C3FDB8F79A8D366075C52F37BD272FAC04E7E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{499904F8-CFD4-4C6E-942C-F390F032B9BA}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="3922" yWindow="3555" windowWidth="16200" windowHeight="9308" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,13 +20,29 @@
     <sheet name="global_peace_index" sheetId="6" r:id="rId5"/>
     <sheet name="female_income_share" sheetId="7" r:id="rId6"/>
     <sheet name="paid_leave" sheetId="3" r:id="rId7"/>
+    <sheet name="working_hours" sheetId="8" r:id="rId8"/>
+    <sheet name="nights" sheetId="9" r:id="rId9"/>
+    <sheet name="poverty_risk" sheetId="10" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="427">
   <si>
     <t>Kraj</t>
   </si>
@@ -3243,13 +3259,41 @@
       </rPr>
       <t>Zimbabwe</t>
     </r>
+  </si>
+  <si>
+    <t>European Union - 27 countries (from 2020)</t>
+  </si>
+  <si>
+    <t>Euro area – 20 countries (from 2023)</t>
+  </si>
+  <si>
+    <t>working_hours</t>
+  </si>
+  <si>
+    <t>nights</t>
+  </si>
+  <si>
+    <t>European Union - 28 countries (2013-2020)</t>
+  </si>
+  <si>
+    <t>European Union - 27 countries (2007-2013)</t>
+  </si>
+  <si>
+    <t>Euro area - 19 countries  (2015-2022)</t>
+  </si>
+  <si>
+    <t>poverty_risk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="#,##0.##########"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3278,8 +3322,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3298,8 +3358,28 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0096DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="mediumGray">
+        <bgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDCE6F1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF6F6F6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -3318,11 +3398,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB0B0B0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB0B0B0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB0B0B0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB0B0B0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3337,9 +3433,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C127ACE5-7971-4EE2-815E-3C5A0EB9C423}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -3352,6 +3486,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5026,6 +5164,339 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB28C80F-F64F-49C6-9759-8B2A9CCC8CA4}">
+  <dimension ref="A1:B42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="15">
+        <v>8.3000000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B5" s="16">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="16">
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="15">
+        <v>11.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="16">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="16">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="15">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="15">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="16">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="15">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="16">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="15">
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="16">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="15">
+        <v>9.1999999999999993</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="16">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="15">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="16">
+        <v>6.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="15">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="16">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>7.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="16">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="16">
+        <v>15.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" s="15">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="16">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" s="15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33" s="16">
+        <v>7.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" s="15"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="16">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="15"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="15">
+        <v>11.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F2E7997-CEAB-4C01-97F4-2EFA7F19D8AA}">
   <dimension ref="A1:B194"/>
@@ -12644,8 +13115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521EBC08-C1B3-4674-A55D-16056883924B}">
   <dimension ref="A1:B194"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -14205,4 +14676,650 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F39A19B1-DBF3-4018-B001-34E31D1B4709}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="21.06640625" customWidth="1"/>
+    <col min="2" max="2" width="12.53125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="15">
+        <v>37.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="16">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="15">
+        <v>36.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="16">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="15">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="16">
+        <v>33.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15">
+        <v>34.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="16">
+        <v>37.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="15">
+        <v>35.799999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="16">
+        <v>40.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="15">
+        <v>37.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="16">
+        <v>37.200000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="15">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="16">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="15">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="16">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="15">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="16">
+        <v>37.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="15">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="15">
+        <v>31.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="16">
+        <v>35.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="15">
+        <v>40.200000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="16">
+        <v>39.799999999999997</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="15">
+        <v>40.1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="16">
+        <v>39.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="15">
+        <v>39.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="16">
+        <v>35.700000000000003</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="15">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="16">
+        <v>38.299999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="15">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="16">
+        <v>36.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="10"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="11">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="10"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="12"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="9">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="13">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FF66C8B-4020-4963-AF73-7536A89F51E5}">
+  <dimension ref="A1:B39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="B2" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A3" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B3" s="18">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A4" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="17">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A5" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="18">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="17">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A7" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A9" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="18">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A10" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A11" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="18">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A12" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="17">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A13" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="18">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A14" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="17">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A15" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="18">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A16" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="17">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" s="17">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="18">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="17">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B21" s="18">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="17">
+        <v>2.9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="18">
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="17">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" s="18">
+        <v>5.6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="17">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="18">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="17">
+        <v>11.2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B29" s="18">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="17">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="18">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="18">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B34" s="17"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="18">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B36" s="17"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="18"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="17">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="18">
+        <v>3.4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>